--- a/posesiones/1486004.xlsx
+++ b/posesiones/1486004.xlsx
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>22</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>20</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>21</v>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>14</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>20</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>30</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>8</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>13</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>17</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>25</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>7</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>14</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>16</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>10</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>18</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R43">
         <v>18</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>27</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>24</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>24</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51">
         <v>20</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>20</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62">
         <v>14</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64">
         <v>22</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R72">
         <v>12</v>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R73">
         <v>18</v>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R74">
         <v>16</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R76">
         <v>6</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5731,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>31</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R89">
         <v>14</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>22</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R95">
         <v>19</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>18</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R100">
         <v>10</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R105">
         <v>5</v>
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7192,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R112">
         <v>2</v>
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -7571,10 +7571,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7897,10 +7897,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R130">
         <v>26</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8147,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R132">
         <v>23</v>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R134">
         <v>9</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8350,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R136">
         <v>18</v>
@@ -8400,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8450,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R138">
         <v>20</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R140">
         <v>8</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8841,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R146">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8944,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R148">
         <v>13</v>
@@ -8997,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R149">
         <v>21</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9097,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R151">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R157">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9488,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R159">
         <v>6</v>
@@ -9538,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9588,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R161">
         <v>4</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R165">
         <v>25</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10026,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10076,7 +10076,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R171">
         <v>17</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R177">
         <v>29</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R179">
         <v>6</v>
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R183">
         <v>23</v>
@@ -10711,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10761,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R185">
         <v>8</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10911,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R188">
         <v>26</v>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11011,7 +11011,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R190">
         <v>10</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11114,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R192">
         <v>20</v>
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11214,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R194">
         <v>18</v>
@@ -11267,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R195">
         <v>28</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R201">
         <v>32</v>
@@ -11608,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R202">
         <v>21</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R204">
         <v>13</v>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11949,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11999,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R210">
         <v>22</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12096,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R214">
         <v>25</v>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R217">
         <v>21</v>
@@ -12399,7 +12399,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R218">
         <v>14</v>
@@ -12452,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12502,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R220">
         <v>23</v>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12652,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R223">
         <v>10</v>
@@ -12705,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R225">
         <v>8</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12858,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>20</v>
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13143,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13234,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13328,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R239">
         <v>16</v>
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13575,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R242">
         <v>8</v>
@@ -13619,10 +13619,10 @@
         <v>1</v>
       </c>
       <c r="P243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14039,10 +14039,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q252">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14092,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R253">
         <v>13</v>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R255">
         <v>20</v>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14383,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R260">
         <v>26</v>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14577,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R263">
         <v>26</v>
@@ -14630,7 +14630,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R264">
         <v>16</v>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14730,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R266">
         <v>6</v>
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14830,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R268">
         <v>23</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14930,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R270">
         <v>26</v>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15027,7 +15027,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R272">
         <v>1</v>
@@ -15080,7 +15080,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R273">
         <v>27</v>
@@ -15130,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15177,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R277">
         <v>13</v>
@@ -15327,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R278">
         <v>22</v>
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R280">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15524,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15668,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R285">
         <v>0</v>
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15812,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16003,7 +16003,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R292">
         <v>16</v>
@@ -16056,7 +16056,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R293">
         <v>22</v>
@@ -16109,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16253,7 +16253,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R297">
         <v>28</v>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16353,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16450,7 +16450,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R301">
         <v>16</v>
@@ -16503,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16550,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16597,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16644,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16738,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17167,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R316">
         <v>13</v>
@@ -17220,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R318">
         <v>12</v>
@@ -17320,7 +17320,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17370,7 +17370,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R320">
         <v>15</v>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17514,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17561,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17608,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R327">
         <v>0</v>
@@ -17758,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R328">
         <v>12</v>
@@ -17811,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17861,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R330">
         <v>11</v>
@@ -17914,7 +17914,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R331">
         <v>16</v>
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18011,7 +18011,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R336">
         <v>0</v>
@@ -18205,7 +18205,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18252,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18299,7 +18299,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18349,7 +18349,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R340">
         <v>3</v>
@@ -18402,7 +18402,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R341">
         <v>18</v>
@@ -18452,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18502,7 +18502,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R343">
         <v>21</v>
@@ -18555,7 +18555,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18605,7 +18605,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R345">
         <v>11</v>
@@ -18655,7 +18655,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18702,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18752,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R349">
         <v>9</v>
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18902,7 +18902,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R351">
         <v>22</v>
@@ -18955,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19005,7 +19005,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R353">
         <v>6</v>
@@ -19055,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19102,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19149,7 +19149,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19193,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19240,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19287,7 +19287,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19337,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R360">
         <v>0</v>
@@ -19390,7 +19390,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R361">
         <v>14</v>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R362">
         <v>10</v>
@@ -19493,7 +19493,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19543,7 +19543,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R364">
         <v>16</v>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19643,7 +19643,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R366">
         <v>4</v>
@@ -19693,7 +19693,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19740,7 +19740,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20022,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20069,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20116,7 +20116,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20163,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20213,7 +20213,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R378">
         <v>8</v>
@@ -20266,7 +20266,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R379">
         <v>21</v>
@@ -20316,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20366,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R381">
         <v>4</v>
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20469,7 +20469,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R383">
         <v>6</v>
@@ -20519,7 +20519,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20613,7 +20613,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20660,7 +20660,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20707,7 +20707,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20804,7 +20804,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R390">
         <v>14</v>
@@ -20854,7 +20854,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20995,7 +20995,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21042,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21092,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R396">
         <v>10</v>
@@ -21142,7 +21142,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21239,7 +21239,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R399">
         <v>0</v>
@@ -21292,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R400">
         <v>9</v>
@@ -21342,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21392,7 +21392,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R402">
         <v>8</v>
@@ -21442,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21483,10 +21483,10 @@
         <v>1</v>
       </c>
       <c r="P404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q404">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21527,10 +21527,10 @@
         <v>1</v>
       </c>
       <c r="P405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q405">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21580,7 +21580,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R406">
         <v>17</v>
@@ -21633,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21683,7 +21683,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R408">
         <v>21</v>
@@ -21736,7 +21736,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21786,7 +21786,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R410">
         <v>4</v>
@@ -21836,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21886,7 +21886,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R412">
         <v>6</v>
@@ -21936,7 +21936,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21986,7 +21986,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R414">
         <v>15</v>
@@ -22039,7 +22039,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R415">
         <v>27</v>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22139,7 +22139,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22283,7 +22283,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22330,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22377,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22424,7 +22424,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22518,7 +22518,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R426">
         <v>17</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R427">
         <v>19</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22721,7 +22721,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R429">
         <v>12</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22818,7 +22818,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22868,7 +22868,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R432">
         <v>25</v>
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22971,7 +22971,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R434">
         <v>16</v>
@@ -23024,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23074,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R436">
         <v>8</v>
@@ -23127,7 +23127,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23174,7 +23174,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23271,7 +23271,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R440">
         <v>14</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23365,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23412,7 +23412,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23509,7 +23509,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R445">
         <v>12</v>
@@ -23562,7 +23562,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23609,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23709,7 +23709,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R449">
         <v>25</v>
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23809,7 +23809,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23903,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24000,7 +24000,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R455">
         <v>32</v>
@@ -24047,7 +24047,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24097,7 +24097,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R457">
         <v>14</v>
@@ -24150,7 +24150,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24200,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R459">
         <v>20</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24300,7 +24300,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24400,7 +24400,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R463">
         <v>23</v>
@@ -24453,7 +24453,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24503,7 +24503,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R465">
         <v>8</v>
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24600,7 +24600,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24744,7 +24744,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R470">
         <v>8</v>
@@ -24797,7 +24797,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R471">
         <v>14</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24897,7 +24897,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R473">
         <v>20</v>
@@ -24950,7 +24950,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R474">
         <v>22</v>
@@ -25000,7 +25000,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25047,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25094,7 +25094,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25188,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25282,7 +25282,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25376,7 +25376,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25520,7 +25520,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R486">
         <v>21</v>
@@ -25570,7 +25570,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25620,7 +25620,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R488">
         <v>25</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25720,7 +25720,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R490">
         <v>23</v>
@@ -25770,7 +25770,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25817,7 +25817,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25864,7 +25864,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25914,7 +25914,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R494">
         <v>17</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26014,7 +26014,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R496">
         <v>13</v>
@@ -26064,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26111,7 +26111,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26158,7 +26158,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26205,7 +26205,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26252,7 +26252,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26299,7 +26299,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26349,7 +26349,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R503">
         <v>14</v>
@@ -26402,7 +26402,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R504">
         <v>18</v>
@@ -26455,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26505,7 +26505,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R506">
         <v>9</v>
@@ -26555,7 +26555,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26602,7 +26602,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26649,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26699,7 +26699,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R510">
         <v>0</v>
@@ -26752,7 +26752,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R511">
         <v>12</v>
@@ -26805,7 +26805,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R512">
         <v>8</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26905,7 +26905,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26952,7 +26952,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27046,7 +27046,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27093,7 +27093,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27143,7 +27143,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R519">
         <v>20</v>
@@ -27187,10 +27187,10 @@
         <v>1</v>
       </c>
       <c r="P520" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q520">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
